--- a/file_pointers.xlsx
+++ b/file_pointers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03125327\github\project_dosan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03125327\github\fc_hydro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC8F093-2FBE-4BB6-ACB5-125F747FB0AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DC13AA-E8E8-47CD-8AB8-049CDE331832}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4632" yWindow="1092" windowWidth="17280" windowHeight="8964" xr2:uid="{7F61EDE7-CB94-45C5-83B8-2106FB1B135E}"/>
+    <workbookView xWindow="20070" yWindow="3060" windowWidth="15180" windowHeight="12870" xr2:uid="{7F61EDE7-CB94-45C5-83B8-2106FB1B135E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>WTD_input_and_output_folder</t>
   </si>
@@ -103,6 +103,24 @@
   </si>
   <si>
     <t>output/cwl_estimation</t>
+  </si>
+  <si>
+    <t>canal_blocks_raster</t>
+  </si>
+  <si>
+    <t>data/blocks/canal_blocks.tif</t>
+  </si>
+  <si>
+    <t>Optional. Positions of canal blocks</t>
+  </si>
+  <si>
+    <t>sensor_locations</t>
+  </si>
+  <si>
+    <t>data/sensors/sensors.tif</t>
+  </si>
+  <si>
+    <t>Optional. Sensor locations</t>
   </si>
 </sst>
 </file>
@@ -455,24 +473,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49BA472-FFBD-41DC-9472-8CD8ECD904A2}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -483,7 +501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -494,7 +512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -505,7 +523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -516,7 +534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -527,7 +545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -538,37 +556,59 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/file_pointers.xlsx
+++ b/file_pointers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03125327\github\fc_hydro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DC13AA-E8E8-47CD-8AB8-049CDE331832}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C81054B-DC3B-47D1-836F-A72721AE2AF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20070" yWindow="3060" windowWidth="15180" windowHeight="12870" xr2:uid="{7F61EDE7-CB94-45C5-83B8-2106FB1B135E}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -476,7 +478,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/file_pointers.xlsx
+++ b/file_pointers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03125327\github\blopti_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6E8504-56D3-4D57-9995-65DEF859783E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F2CEAD-3510-4DA5-8F45-8719E84FCC1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21765" yWindow="8145" windowWidth="7560" windowHeight="10050" xr2:uid="{7F61EDE7-CB94-45C5-83B8-2106FB1B135E}"/>
+    <workbookView xWindow="6405" yWindow="1095" windowWidth="17505" windowHeight="9330" xr2:uid="{7F61EDE7-CB94-45C5-83B8-2106FB1B135E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>WTD_input_and_output_folder</t>
   </si>
@@ -102,7 +104,34 @@
     <t>output/cwl_estimation</t>
   </si>
   <si>
-    <t>data/sum_canals_clip.tif</t>
+    <t>landcover</t>
+  </si>
+  <si>
+    <t>Needed for CO2 and subsidence rate calculation from WTD</t>
+  </si>
+  <si>
+    <t>canal_blocks_raster</t>
+  </si>
+  <si>
+    <t>data/blocks/canal_blocks.tif</t>
+  </si>
+  <si>
+    <t>Optional. Positions of canal blocks</t>
+  </si>
+  <si>
+    <t>sensor_locations</t>
+  </si>
+  <si>
+    <t>data/sensors/sensors.tif</t>
+  </si>
+  <si>
+    <t>Optional. Sensor locations</t>
+  </si>
+  <si>
+    <t>data/new_canal_raster/sum_canal_raster.tif</t>
+  </si>
+  <si>
+    <t>data/Landcover_2018/landcover.tif</t>
   </si>
 </sst>
 </file>
@@ -455,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49BA472-FFBD-41DC-9472-8CD8ECD904A2}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +528,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -569,6 +598,39 @@
       </c>
       <c r="C11" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/file_pointers.xlsx
+++ b/file_pointers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\03125327\github\blopti_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F2CEAD-3510-4DA5-8F45-8719E84FCC1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C0CE17-D985-4663-AEC1-F718D15D35D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6405" yWindow="1095" windowWidth="17505" windowHeight="9330" xr2:uid="{7F61EDE7-CB94-45C5-83B8-2106FB1B135E}"/>
+    <workbookView xWindow="7005" yWindow="5880" windowWidth="13095" windowHeight="9750" xr2:uid="{7F61EDE7-CB94-45C5-83B8-2106FB1B135E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>WTD_input_and_output_folder</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Optional. In order to run the model with historical data, execute the program in the command line as "python daily_map -hp". The model will run with all the historical data contined in the file specified in Path. In order to change the range of the simulation, carefully edit the .csv file to the range required. It is crucial to maintain the format. When doing so, the water table  begins the simulation at the surface, i.e., in fully saturated conditions.</t>
   </si>
   <si>
-    <t>data/Dayun_weather_1-11-19_12-00_AM_1_Year_1583925430_v2.csv</t>
-  </si>
-  <si>
     <t>input</t>
   </si>
   <si>
@@ -132,6 +129,21 @@
   </si>
   <si>
     <t>data/Landcover_2018/landcover.tif</t>
+  </si>
+  <si>
+    <t>data/weather_station_historic_data.xlsx</t>
+  </si>
+  <si>
+    <t>data/historic_wtd_data_18-1-2021.xlsx</t>
+  </si>
+  <si>
+    <t>wtd_measurements</t>
+  </si>
+  <si>
+    <t>sensor_location_dictionary</t>
+  </si>
+  <si>
+    <t>data/sensors/sensor_location.csv</t>
   </si>
 </sst>
 </file>
@@ -484,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49BA472-FFBD-41DC-9472-8CD8ECD904A2}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,10 +529,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -528,10 +540,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -539,10 +551,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -553,7 +565,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -564,7 +576,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -572,7 +584,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -580,57 +592,73 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
-        <v>30</v>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
